--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value180.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value180.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.23957920429937</v>
+        <v>0.823918879032135</v>
       </c>
       <c r="B1">
-        <v>1.568158173678784</v>
+        <v>2.668290615081787</v>
       </c>
       <c r="C1">
-        <v>2.276040470769858</v>
+        <v>6.797377586364746</v>
       </c>
       <c r="D1">
-        <v>3.667343094673521</v>
+        <v>4.806951999664307</v>
       </c>
       <c r="E1">
-        <v>0.4730566185638055</v>
+        <v>2.431468963623047</v>
       </c>
     </row>
   </sheetData>
